--- a/Model/DLinear/processing_output/ITD/622/close_train_scaler.xlsx
+++ b/Model/DLinear/processing_output/ITD/622/close_train_scaler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B877"/>
+  <dimension ref="A1:B920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7448,6 +7448,350 @@
         <v>0.31844</v>
       </c>
     </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="n">
+        <v>0.30726</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" t="n">
+        <v>0.30726</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" t="n">
+        <v>0.32464</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" t="n">
+        <v>0.31037</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" t="n">
+        <v>0.31595</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" t="n">
+        <v>0.29919</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" t="n">
+        <v>0.30478</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" t="n">
+        <v>0.30168</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" t="n">
+        <v>0.29919</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B887" t="n">
+        <v>0.2905</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B888" t="n">
+        <v>0.2905</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B889" t="n">
+        <v>0.2905</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B890" t="n">
+        <v>0.28181</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" t="n">
+        <v>0.2396</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" t="n">
+        <v>0.25388</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" t="n">
+        <v>0.23712</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="n">
+        <v>0.2396</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="n">
+        <v>0.23402</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" t="n">
+        <v>0.22222</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="n">
+        <v>0.21664</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" t="n">
+        <v>0.21167</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" t="n">
+        <v>0.20546</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" t="n">
+        <v>0.20608</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" t="n">
+        <v>0.17194</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" t="n">
+        <v>0.18063</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" t="n">
+        <v>0.20732</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" t="n">
+        <v>0.19429</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" t="n">
+        <v>0.19429</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" t="n">
+        <v>0.21788</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" t="n">
+        <v>0.19491</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" t="n">
+        <v>0.2067</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" t="n">
+        <v>0.20608</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" t="n">
+        <v>0.21167</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" t="n">
+        <v>0.21415</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" t="n">
+        <v>0.22222</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" t="n">
+        <v>0.21353</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="n">
+        <v>0.2185</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="n">
+        <v>0.20857</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="n">
+        <v>0.19181</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="n">
+        <v>0.21664</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="n">
+        <v>0.22843</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="n">
+        <v>0.26505</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="n">
+        <v>0.27933</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
